--- a/data/Loads/26h_rec_load.xlsx
+++ b/data/Loads/26h_rec_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.giannuzzo\PycharmProjects\BESS-Optimization\data\Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1590F78-6B75-45F1-AED9-0DE289B04433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501667F-0582-4047-856B-2C97A852F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44562</v>
+        <v>45431.916666666664</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44562</v>
+        <v>45431.958333333336</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44562</v>
+        <v>45432</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44562</v>
+        <v>45432.041666666664</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44562</v>
+        <v>45432.08333321759</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44562</v>
+        <v>45432.124999826388</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44562</v>
+        <v>45432.166666435187</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44562</v>
+        <v>45432.208333043978</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44562</v>
+        <v>45432.249999652777</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44562</v>
+        <v>45432.291666261575</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44562</v>
+        <v>45432.333332870374</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44562</v>
+        <v>45432.374999479165</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44562</v>
+        <v>45432.416666087964</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44562</v>
+        <v>45432.458332696762</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44562</v>
+        <v>45432.499999305554</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44562</v>
+        <v>45432.541665914352</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44562</v>
+        <v>45432.583332523151</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44562</v>
+        <v>45432.624999131942</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44562</v>
+        <v>45432.66666574074</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44562</v>
+        <v>45432.708332349539</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44562</v>
+        <v>45432.74999895833</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44562</v>
+        <v>45432.791665567129</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44562</v>
+        <v>45432.833332175927</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44562</v>
+        <v>45432.874998784719</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44563</v>
+        <v>45432.916665393517</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44563</v>
+        <v>45432.958332002316</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -952,15 +952,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9475D466104B4F8254900DD2928249" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="51bfdcbcfa4b53868757ab92efd2e4cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73f032b1-d858-4e52-a112-ff8a449379e0" xmlns:ns3="2cf41f78-c934-4264-8805-5389acee063d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af5ace7edf031339c2ec4586fdd3025f" ns2:_="" ns3:_="">
     <xsd:import namespace="73f032b1-d858-4e52-a112-ff8a449379e0"/>
@@ -1171,6 +1162,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1B6BB8-FD2A-4AEA-B6AE-93A661D322ED}">
   <ds:schemaRefs>
@@ -1182,14 +1182,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A95E8C-2DF0-417F-AE2A-4B76F2DB91C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF38105-3D33-41BD-B0FD-8B52FBC5D4A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1206,4 +1198,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A95E8C-2DF0-417F-AE2A-4B76F2DB91C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>